--- a/src/data2.xlsx
+++ b/src/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dataCleansing\server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD0B72-5D06-4B5A-93A7-2171D7A1CDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB9FEC-C8D1-49FD-8335-D08BBB71B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
-    <t>Aviran</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>agent</t>
   </si>
@@ -48,23 +42,131 @@
     <t>role</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>aviran@example.com</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>John Doe</t>
+    <t>test record 2</t>
+  </si>
+  <si>
+    <t>test record 1</t>
+  </si>
+  <si>
+    <t>test record 3</t>
+  </si>
+  <si>
+    <t>test record 4</t>
+  </si>
+  <si>
+    <t>test record 5</t>
+  </si>
+  <si>
+    <t>test record 6</t>
+  </si>
+  <si>
+    <t>test record 7</t>
+  </si>
+  <si>
+    <t>test record 8</t>
+  </si>
+  <si>
+    <t>test record 9</t>
+  </si>
+  <si>
+    <t>test record 10</t>
+  </si>
+  <si>
+    <t>person 1</t>
+  </si>
+  <si>
+    <t>person 2</t>
+  </si>
+  <si>
+    <t>person 3</t>
+  </si>
+  <si>
+    <t>person 4</t>
+  </si>
+  <si>
+    <t>person 5</t>
+  </si>
+  <si>
+    <t>person 6</t>
+  </si>
+  <si>
+    <t>person 7</t>
+  </si>
+  <si>
+    <t>person 8</t>
+  </si>
+  <si>
+    <t>person 9</t>
+  </si>
+  <si>
+    <t>person 10</t>
+  </si>
+  <si>
+    <t>person1email@mail.com</t>
+  </si>
+  <si>
+    <t>person2email@mail.com</t>
+  </si>
+  <si>
+    <t>person3email@mail.com</t>
+  </si>
+  <si>
+    <t>person4email@mail.com</t>
+  </si>
+  <si>
+    <t>person5email@mail.com</t>
+  </si>
+  <si>
+    <t>person6email@mail.com</t>
+  </si>
+  <si>
+    <t>person7email@mail.com</t>
+  </si>
+  <si>
+    <t>person8email@mail.com</t>
+  </si>
+  <si>
+    <t>person9email@mail.com</t>
+  </si>
+  <si>
+    <t>person10email@mail.com</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>maman</t>
+  </si>
+  <si>
+    <t>swissport</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>transport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +182,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -97,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,12 +214,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,12 +238,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,195 +529,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
         <v>509999999</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4">
         <v>509999999</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>509999999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{35FF763F-BF60-495B-AA1E-C17D9313FF7C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>